--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3887235.875763842</v>
+        <v>3962334.661175971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7688152.054234284</v>
+        <v>7586704.028476701</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>35.67412096172817</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>141.0102149207193</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>67.06388118995304</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>72.46878910144345</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>88.80932687628616</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>202.2383441227465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.9886297571733</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2116514594134253</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>83.90832503207776</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>49.00528239004479</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>12.25082275066701</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>25.37433807241453</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.5206737510605</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>14.73664328357102</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>88.23851788996329</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>45.21952718910648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>271.3644504870094</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415142</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>87.65220976162087</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>102.3715833422285</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941864</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463051</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>196.0616210987</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415142</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.8658378359718</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2661.114625400315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2484.937137714485</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2266.302470686548</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="U2" t="n">
-        <v>2266.302470686548</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.239583342978</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="W2" t="n">
-        <v>1582.470928072863</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.005169811784</v>
+        <v>2181.248772231163</v>
       </c>
       <c r="Y2" t="n">
-        <v>818.8658378359718</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>545.1075869943427</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>127.1437788925296</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>127.1437788925296</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143.6493726044919</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>143.6493726044919</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>143.6493726044919</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>143.6493726044919</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>143.6493726044919</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>143.6493726044919</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.976198199964</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1061.976198199964</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1061.976198199964</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>676.1879456017195</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.576038264086</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.9299350185087</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>249.9299350185087</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>99.81329560617297</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>99.81329560617297</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185087</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>727.7227988731072</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>558.7866159452003</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>408.6699765328646</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
         <v>359.1696912903951</v>
@@ -5227,22 +5229,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X13" t="n">
-        <v>1375.466598684711</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>909.3712637033469</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5257,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822453</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5303,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>122.8477359778763</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.3281774570627</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.3281774570627</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>353.2115380447269</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>353.2115380447269</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>353.2115380447269</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>353.2115380447269</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>202.7935295926702</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.3281774570627</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.3281774570627</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5731,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5747,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>579.068505649155</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1409.786454507435</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6220,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.6964226305959</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C28" t="n">
-        <v>437.6964226305959</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>437.6964226305959</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>289.7833290482027</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>142.8933815502924</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>142.8933815502924</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>142.8933815502924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1224.810765015469</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1224.810765015469</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226305959</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,28 +6454,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4461.321873873872</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>4172.19323508743</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>3917.508746881543</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>2032.925401907737</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2312.465467126434</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.793971740472</v>
+        <v>964.135741824786</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852606</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480311</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937959</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.21847248009</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427935</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089924</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782178</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255134</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494607</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490134</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746026</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979767</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.59956061616</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571753</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.534317401301</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.2257696549</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489055</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492135</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634159</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.62234553067</v>
+        <v>964.135741824786</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103121</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982965</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,22 +7183,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7627,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,58 +7639,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7831,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>127.6461250100648</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>104.8749102765741</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.406710013101815</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>97.42868025652439</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23467,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>213.4588326383702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>121.0596245741546</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>5.898571713211453</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>134.1771850839651</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>109.68229209364</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65.19971827516551</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>14.87290191156791</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.8953512967684</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>64.87523775639929</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>29.64803429033714</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>52.31591677926856</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678220.2297877218</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678220.2297877218</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678220.2297877218</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678220.2297877218</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678220.2297877218</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="L2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="J2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>742955.213501647</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.60758687075</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44593.39482819119</v>
-      </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340937</v>
+        <v>-58470.14369340934</v>
       </c>
       <c r="C6" t="n">
         <v>531497.7355211353</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.7355211353</v>
+        <v>531497.7355211352</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891634</v>
+        <v>103633.2434891636</v>
       </c>
       <c r="F6" t="n">
         <v>628793.2799660598</v>
       </c>
       <c r="G6" t="n">
+        <v>628793.2799660597</v>
+      </c>
+      <c r="H6" t="n">
+        <v>628793.2799660598</v>
+      </c>
+      <c r="I6" t="n">
+        <v>628793.2799660598</v>
+      </c>
+      <c r="J6" t="n">
+        <v>452370.0607734668</v>
+      </c>
+      <c r="K6" t="n">
         <v>628793.27996606</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>628793.2799660601</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>493992.2647322225</v>
+      </c>
+      <c r="N6" t="n">
+        <v>628793.2799660597</v>
+      </c>
+      <c r="O6" t="n">
+        <v>628793.2799660596</v>
+      </c>
+      <c r="P6" t="n">
         <v>628793.2799660601</v>
-      </c>
-      <c r="J6" t="n">
-        <v>452370.0607734669</v>
-      </c>
-      <c r="K6" t="n">
-        <v>583175.6686191405</v>
-      </c>
-      <c r="L6" t="n">
-        <v>637681.1807228527</v>
-      </c>
-      <c r="M6" t="n">
-        <v>502880.1654890158</v>
-      </c>
-      <c r="N6" t="n">
-        <v>637681.1807228529</v>
-      </c>
-      <c r="O6" t="n">
-        <v>637681.1807228529</v>
-      </c>
-      <c r="P6" t="n">
-        <v>628793.2799660598</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.80428161308354</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>75.43810543693846</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>112.7680989919843</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>79.4625271434178</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>130.8675288472112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>67.36156196550898</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>204.6377016189649</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>91.74247092129576</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.2093965635178</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>134.676328320017</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>460.8406984080777</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>438.070502060531</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>192.8879430616483</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.41974279817592</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3962334.661175971</v>
+        <v>3955317.64628426</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>288.9792071359361</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>141.0102149207193</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.06388118995304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>72.46878910144345</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>149.897480413036</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>60.46179076613073</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.9886297571733</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095403</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.90832503207776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>49.00528239004479</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>151.5611006472035</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5769296085227</v>
       </c>
       <c r="E16" t="n">
-        <v>25.37433807241453</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.5206737510605</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>121.6872846616449</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>14.73664328357102</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>88.23851788996329</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>271.3644504870094</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>87.65220976162087</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>102.3715833422285</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>73.0083725945403</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>197.6165621654129</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>52.94876677773185</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>196.0616210987</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>80.83119524460984</v>
       </c>
       <c r="U46" t="n">
-        <v>210.968521252134</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>506.2526476006764</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>506.2526476006764</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>499.307146851473</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2554.714530492243</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2554.714530492243</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2554.714530492243</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2554.714530492243</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2181.248772231163</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5356891811371</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.359190390701</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>956.0934917839502</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>956.0934917839502</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>545.1075869943427</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>127.1437788925296</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>127.1437788925296</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2545.737494641418</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2327.102827613481</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>913.7382812066351</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>128.9389018071581</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>115.015497745749</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.015497745749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1690.477453246569</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1300.338121270757</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>698.712065060056</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>529.7758821321491</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>379.6592427198134</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>231.7461491374203</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>84.85620163950992</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541694</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541694</v>
+        <v>698.712065060056</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541694</v>
+        <v>698.712065060056</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>698.712065060056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.7227988731072</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>558.7866159452003</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>408.6699765328646</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1345.824249702141</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1345.824249702141</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1056.695610915699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033469</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033469</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="X13" t="n">
-        <v>909.3712637033469</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.3712637033469</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,7 +5305,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="C16" t="n">
-        <v>272.964375390212</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="D16" t="n">
-        <v>122.8477359778763</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619851</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.3281774570627</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>503.3281774570627</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>353.2115380447269</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>353.2115380447269</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>353.2115380447269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>353.2115380447269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>202.7935295926702</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570627</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.3281774570627</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,25 +5740,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.068505649155</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212481</v>
+        <v>514.936581693766</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089123</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>112.1025897265192</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>112.1025897265192</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>112.1025897265192</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229249</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793947</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1409.786454507435</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1186.001039296941</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1186.001039296941</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.001039296941</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>896.58386925998</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619627</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184325</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.6010158349783</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.810765015469</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1224.810765015469</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>935.3935949785084</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>935.3935949785084</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>714.6010158349783</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,19 +6457,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4461.321873873872</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4172.19323508743</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>3917.508746881543</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>3628.091576844583</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>570.0299571250968</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315608</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.135741824786</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>317.8528698617723</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>170.9629223638619</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>964.135741824786</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>964.135741824786</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>964.135741824786</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.135741824786</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U37" t="n">
-        <v>4231.24660305754</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V37" t="n">
-        <v>3976.562114851653</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W37" t="n">
-        <v>3687.144944814692</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916675</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.4452354807079</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
         <v>265.3924131404652</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>964.135741824786</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X40" t="n">
-        <v>766.0937003109476</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y40" t="n">
-        <v>766.0937003109476</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.685527502827</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.685527502827</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U46" t="n">
-        <v>862.1113288466635</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V46" t="n">
-        <v>607.4268406407766</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>318.0096706038159</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.114737013996</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814625</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.8749102765741</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>97.42868025652439</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>46.35970933639976</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.03854340968969</v>
       </c>
       <c r="E16" t="n">
-        <v>121.0596245741546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>5.898571713211453</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>26.92818835656743</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>134.1771850839651</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>109.68229209364</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.87290191156791</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>133.8953512967684</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>64.87523775639929</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>93.48519586883728</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>23.93099889297636</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>93.48519586883731</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>29.64803429033714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.31591677926856</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>140.7163658137794</v>
       </c>
       <c r="U46" t="n">
-        <v>75.26883114644335</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.309476629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.309476629</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.309476629</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="F2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>742955.213501647</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,13 +26435,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,19 +26484,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340934</v>
+        <v>-58470.14369340922</v>
       </c>
       <c r="C6" t="n">
         <v>531497.7355211353</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.7355211352</v>
+        <v>531497.7355211353</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891636</v>
+        <v>102658.652229442</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063379</v>
       </c>
       <c r="G6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="H6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="I6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="J6" t="n">
-        <v>452370.0607734668</v>
+        <v>451395.469513745</v>
       </c>
       <c r="K6" t="n">
-        <v>628793.27996606</v>
+        <v>627818.6887063381</v>
       </c>
       <c r="L6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="M6" t="n">
-        <v>493992.2647322225</v>
+        <v>493017.6734725011</v>
       </c>
       <c r="N6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063385</v>
       </c>
       <c r="O6" t="n">
-        <v>628793.2799660596</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="P6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063381</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,19 +26752,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>124.8049628848589</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>75.43810543693846</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.7680989919843</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>79.4625271434178</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>24.51823239593554</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>91.46952547873053</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>91.74247092129576</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.7057146380969</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>134.676328320017</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700203</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35503,10 +35503,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341706</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.8879430616483</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>309.5875389014632</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955317.64628426</v>
+        <v>3960256.909133292</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>288.9792071359361</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>158.4785919752546</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913975</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>164.9979167516521</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>149.897480413036</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.52687838733165</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60.46179076613073</v>
+        <v>109.4422623037138</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>30.60408762095403</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053146</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>151.5611006472035</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>183.3290836533407</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>101.5769296085227</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>27.55584844405769</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>195.7632657493767</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.6872846616449</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3228038217186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>29.3220157029459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="29">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.0083725945403</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>228.9598970661019</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>197.6165621654129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="38">
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>52.94876677773185</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>80.83119524460984</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.480863147839</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>864.5183462074269</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>506.2526476006764</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>506.2526476006764</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>499.307146851473</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2537.069705184632</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2283.307919822723</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>701.2682401646781</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2545.737494641418</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.102827613481</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2073.341042251573</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2073.341042251573</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2073.341042251573</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2073.341042251573</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2073.341042251573</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4710,19 +4710,19 @@
         <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,19 +4731,19 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
         <v>713.4553696737762</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>554.3221432721098</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631121</v>
+        <v>185.3596263316981</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563616</v>
+        <v>185.3596263316981</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8844025563616</v>
+        <v>185.3596263316981</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071581</v>
+        <v>178.4141255824946</v>
       </c>
       <c r="G8" t="n">
-        <v>115.015497745749</v>
+        <v>164.4907215210855</v>
       </c>
       <c r="H8" t="n">
-        <v>115.015497745749</v>
+        <v>164.4907215210855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>940.9219833362315</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321491</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198134</v>
+        <v>548.5954256477208</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374203</v>
+        <v>400.6823320653277</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163950992</v>
+        <v>253.7923845674174</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.79258430574978</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.79258430574978</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.79258430574978</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,7 +5038,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5047,7 +5047,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1345.824249702141</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1345.824249702141</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1056.695610915699</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>802.0111227098126</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>802.0111227098126</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>802.0111227098126</v>
+        <v>1113.815367894323</v>
       </c>
       <c r="Y13" t="n">
-        <v>581.2185435662825</v>
+        <v>893.0227887507926</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5272,19 +5272,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.9315552689001</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>367.9953723409932</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5469,19 +5469,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104475</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>757.7241344124302</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.9315552689001</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,13 +5834,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.936581693766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>514.936581693766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.900558318119</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>441.900558318119</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>441.900558318119</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X28" t="n">
-        <v>441.900558318119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.900558318119</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6645,25 +6645,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6691,37 +6691,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>317.8528698617723</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>170.9629223638619</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1099.383571417482</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>810.2549326310402</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>555.5704444251534</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>266.1532743881928</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X37" t="n">
-        <v>266.1532743881928</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,34 +7165,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>465.7659634441654</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>465.7659634441654</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>465.7659634441654</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>465.7659634441654</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>465.7659634441654</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1306.193495155475</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.5002179180831</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>76.43196988338542</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>62.79465928983183</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>46.35970933639976</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>42.38057173569649</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>47.03854340968969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.1538069449795</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>90.47408664920064</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>176.3280338692828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>26.92818835656743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>117.1119469436233</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>93.48519586883728</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>23.17774625772608</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>23.93099889297636</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="38">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>93.48519586883731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7163658137794</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.309476629</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.2135016469</v>
-      </c>
       <c r="G2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="I2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="L2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="J2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016472</v>
-      </c>
       <c r="M2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="N2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340922</v>
+        <v>-58470.14369340948</v>
       </c>
       <c r="C6" t="n">
-        <v>531497.7355211353</v>
+        <v>531497.735521135</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.7355211353</v>
+        <v>531497.7355211349</v>
       </c>
       <c r="E6" t="n">
-        <v>102658.652229442</v>
+        <v>103535.784363192</v>
       </c>
       <c r="F6" t="n">
-        <v>627818.6887063379</v>
+        <v>628695.8208400878</v>
       </c>
       <c r="G6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400876</v>
       </c>
       <c r="H6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400881</v>
       </c>
       <c r="I6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.8208400878</v>
       </c>
       <c r="J6" t="n">
-        <v>451395.469513745</v>
+        <v>452272.6016474948</v>
       </c>
       <c r="K6" t="n">
-        <v>627818.6887063381</v>
+        <v>628695.8208400878</v>
       </c>
       <c r="L6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.820840088</v>
       </c>
       <c r="M6" t="n">
-        <v>493017.6734725011</v>
+        <v>493894.8056062507</v>
       </c>
       <c r="N6" t="n">
-        <v>627818.6887063385</v>
+        <v>628695.820840088</v>
       </c>
       <c r="O6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="P6" t="n">
-        <v>627818.6887063381</v>
+        <v>628695.820840088</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,10 +26767,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>124.8049628848589</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>57.96972838240316</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594881</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>248.7862532691429</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>24.51823239593554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.59587156758265</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>91.46952547873053</v>
+        <v>42.48905394114738</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7057146380969</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>14.65885272800551</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160961</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>283.5253848149101</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,7 +38104,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>269.8880742213565</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
